--- a/data/pca/factorExposure/factorExposure_2016-04-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-04-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01010252114985052</v>
+        <v>0.01316754992801734</v>
       </c>
       <c r="C2">
-        <v>-0.05596421288833678</v>
+        <v>0.03932898298741051</v>
       </c>
       <c r="D2">
-        <v>0.04359259776621015</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.05601211063643006</v>
+      </c>
+      <c r="E2">
+        <v>0.09135065486678112</v>
+      </c>
+      <c r="F2">
+        <v>-0.07742151872702989</v>
+      </c>
+      <c r="G2">
+        <v>0.03861779040956665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04037265480880379</v>
+        <v>0.02503126188995115</v>
       </c>
       <c r="C3">
-        <v>-0.1184317501626857</v>
+        <v>0.06614454848661541</v>
       </c>
       <c r="D3">
-        <v>0.08452475832330668</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.0713476006637508</v>
+      </c>
+      <c r="E3">
+        <v>0.07178792773973701</v>
+      </c>
+      <c r="F3">
+        <v>0.02927786694255018</v>
+      </c>
+      <c r="G3">
+        <v>0.04833565119143905</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06227051955726288</v>
+        <v>0.05987196021588133</v>
       </c>
       <c r="C4">
-        <v>-0.06044212230682875</v>
+        <v>0.06276278589486407</v>
       </c>
       <c r="D4">
-        <v>0.0244125159290022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.0492564767454722</v>
+      </c>
+      <c r="E4">
+        <v>0.09137706818548075</v>
+      </c>
+      <c r="F4">
+        <v>-0.03141358748460987</v>
+      </c>
+      <c r="G4">
+        <v>0.09634622387596002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04096448964728151</v>
+        <v>0.03610146704163708</v>
       </c>
       <c r="C6">
-        <v>-0.03422282089958406</v>
+        <v>0.02623132821987388</v>
       </c>
       <c r="D6">
-        <v>0.0270272938262248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.05871527537745746</v>
+      </c>
+      <c r="E6">
+        <v>0.08994817382924589</v>
+      </c>
+      <c r="F6">
+        <v>-0.01980007933236618</v>
+      </c>
+      <c r="G6">
+        <v>0.06950913598890572</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02665574862826553</v>
+        <v>0.02100783235358759</v>
       </c>
       <c r="C7">
-        <v>-0.04180241475505798</v>
+        <v>0.03644540090210848</v>
       </c>
       <c r="D7">
-        <v>-0.006138168184162521</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.0357727520439614</v>
+      </c>
+      <c r="E7">
+        <v>0.06744220575277554</v>
+      </c>
+      <c r="F7">
+        <v>-0.06092561588224903</v>
+      </c>
+      <c r="G7">
+        <v>0.1038688148251226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.007164118191458135</v>
+        <v>0.005192717901990178</v>
       </c>
       <c r="C8">
-        <v>-0.03720153272081266</v>
+        <v>0.03249833491204822</v>
       </c>
       <c r="D8">
-        <v>0.02667787425631679</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.0318866506534952</v>
+      </c>
+      <c r="E8">
+        <v>0.06104700027612457</v>
+      </c>
+      <c r="F8">
+        <v>-0.01371089845767838</v>
+      </c>
+      <c r="G8">
+        <v>0.04119464382055468</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03498907001975917</v>
+        <v>0.03810333043136548</v>
       </c>
       <c r="C9">
-        <v>-0.05010815222550751</v>
+        <v>0.05136402834208496</v>
       </c>
       <c r="D9">
-        <v>0.00918223336672465</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.03440739188378775</v>
+      </c>
+      <c r="E9">
+        <v>0.07640620698028006</v>
+      </c>
+      <c r="F9">
+        <v>-0.04579104337481238</v>
+      </c>
+      <c r="G9">
+        <v>0.09098820499218069</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07177425845669205</v>
+        <v>0.09879445340592911</v>
       </c>
       <c r="C10">
-        <v>0.1860788362292328</v>
+        <v>-0.1971362107155175</v>
       </c>
       <c r="D10">
-        <v>-0.01072762819855655</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01466983293824266</v>
+      </c>
+      <c r="E10">
+        <v>0.03652501646058249</v>
+      </c>
+      <c r="F10">
+        <v>-0.01611637209309172</v>
+      </c>
+      <c r="G10">
+        <v>0.03537729490065995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04197807205788284</v>
+        <v>0.03726246518634473</v>
       </c>
       <c r="C11">
-        <v>-0.05109913591063336</v>
+        <v>0.04747690656554909</v>
       </c>
       <c r="D11">
-        <v>0.01441072338668904</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03123246758523511</v>
+      </c>
+      <c r="E11">
+        <v>0.03035711595241717</v>
+      </c>
+      <c r="F11">
+        <v>-0.03448022436069569</v>
+      </c>
+      <c r="G11">
+        <v>0.07223228239302887</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04435734992508845</v>
+        <v>0.03934667032525391</v>
       </c>
       <c r="C12">
-        <v>-0.04674232989883223</v>
+        <v>0.04530909683455342</v>
       </c>
       <c r="D12">
-        <v>0.003058553866940562</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02602711459910308</v>
+      </c>
+      <c r="E12">
+        <v>0.03730914303789574</v>
+      </c>
+      <c r="F12">
+        <v>-0.03724281582475154</v>
+      </c>
+      <c r="G12">
+        <v>0.07016452913371923</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01357217069337524</v>
+        <v>0.01113872893952832</v>
       </c>
       <c r="C13">
-        <v>-0.05489838300984112</v>
+        <v>0.04231332674586131</v>
       </c>
       <c r="D13">
-        <v>0.007384636510899371</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04042140391938356</v>
+      </c>
+      <c r="E13">
+        <v>0.1049298306948972</v>
+      </c>
+      <c r="F13">
+        <v>-0.05039859715628851</v>
+      </c>
+      <c r="G13">
+        <v>0.1012972275520771</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.009727752776296396</v>
+        <v>0.005814002704769808</v>
       </c>
       <c r="C14">
-        <v>-0.04090307601470464</v>
+        <v>0.03239063033195168</v>
       </c>
       <c r="D14">
-        <v>-0.008892157981943245</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02281013379175164</v>
+      </c>
+      <c r="E14">
+        <v>0.05234224271930778</v>
+      </c>
+      <c r="F14">
+        <v>-0.06922211435013469</v>
+      </c>
+      <c r="G14">
+        <v>0.08940247265180326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0001348277125720602</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005431326979294668</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.00719186932232692</v>
+      </c>
+      <c r="E15">
+        <v>0.005028698850390105</v>
+      </c>
+      <c r="F15">
+        <v>-0.005852832638913205</v>
+      </c>
+      <c r="G15">
+        <v>0.007836673595952444</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03964250452617889</v>
+        <v>0.03535021612249854</v>
       </c>
       <c r="C16">
-        <v>-0.0486420440758803</v>
+        <v>0.04447951750244983</v>
       </c>
       <c r="D16">
-        <v>0.004969261784230411</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02436287697679609</v>
+      </c>
+      <c r="E16">
+        <v>0.04339664416652728</v>
+      </c>
+      <c r="F16">
+        <v>-0.04574592660261738</v>
+      </c>
+      <c r="G16">
+        <v>0.0619875073573052</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.0256932698352856</v>
+        <v>0.01875337064165229</v>
       </c>
       <c r="C19">
-        <v>-0.05908263472472071</v>
+        <v>0.0433202656651922</v>
       </c>
       <c r="D19">
-        <v>0.09021177763385553</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09029451373425654</v>
+      </c>
+      <c r="E19">
+        <v>0.114759061590595</v>
+      </c>
+      <c r="F19">
+        <v>-0.05658639472369662</v>
+      </c>
+      <c r="G19">
+        <v>0.05260725228103944</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01810809452891379</v>
+        <v>0.01449406307229145</v>
       </c>
       <c r="C20">
-        <v>-0.04799130286165885</v>
+        <v>0.03872530100533001</v>
       </c>
       <c r="D20">
-        <v>0.009343303089530844</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03109168064960179</v>
+      </c>
+      <c r="E20">
+        <v>0.08014041463745418</v>
+      </c>
+      <c r="F20">
+        <v>-0.04400851766074571</v>
+      </c>
+      <c r="G20">
+        <v>0.07236694014537293</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.0119163895361861</v>
+        <v>0.01040814803344081</v>
       </c>
       <c r="C21">
-        <v>-0.05154154239750981</v>
+        <v>0.04079300786642452</v>
       </c>
       <c r="D21">
-        <v>0.03340497604793653</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.05449975329890379</v>
+      </c>
+      <c r="E21">
+        <v>0.125264841614058</v>
+      </c>
+      <c r="F21">
+        <v>-0.07458715203106704</v>
+      </c>
+      <c r="G21">
+        <v>0.11264726163365</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.00192607373071063</v>
+        <v>0.002974110689879426</v>
       </c>
       <c r="C22">
-        <v>-0.001236713349212933</v>
+        <v>0.02715414173059628</v>
       </c>
       <c r="D22">
-        <v>0.005663661045439844</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.04257666791262423</v>
+      </c>
+      <c r="E22">
+        <v>0.04616567579181047</v>
+      </c>
+      <c r="F22">
+        <v>0.01779009478822554</v>
+      </c>
+      <c r="G22">
+        <v>0.05313765774106524</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.001931662638398533</v>
+        <v>0.0030614626754285</v>
       </c>
       <c r="C23">
-        <v>-0.001254857881919902</v>
+        <v>0.02729181814050631</v>
       </c>
       <c r="D23">
-        <v>0.005654742067088932</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.04212084020635649</v>
+      </c>
+      <c r="E23">
+        <v>0.04640997915787926</v>
+      </c>
+      <c r="F23">
+        <v>0.01807244661114924</v>
+      </c>
+      <c r="G23">
+        <v>0.05310030905166658</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03672686842185489</v>
+        <v>0.03581848436630702</v>
       </c>
       <c r="C24">
-        <v>-0.04974187066803488</v>
+        <v>0.05192911075278883</v>
       </c>
       <c r="D24">
-        <v>0.006795722206521118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02365898841533245</v>
+      </c>
+      <c r="E24">
+        <v>0.04429423132552642</v>
+      </c>
+      <c r="F24">
+        <v>-0.04646148974280458</v>
+      </c>
+      <c r="G24">
+        <v>0.07618761640884751</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04853348678352059</v>
+        <v>0.04378346083329127</v>
       </c>
       <c r="C25">
-        <v>-0.06053049802495841</v>
+        <v>0.05568837094340728</v>
       </c>
       <c r="D25">
-        <v>-0.002953423573830543</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02228714720586177</v>
+      </c>
+      <c r="E25">
+        <v>0.03659557510145169</v>
+      </c>
+      <c r="F25">
+        <v>-0.03600591119136488</v>
+      </c>
+      <c r="G25">
+        <v>0.08353012580545933</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01743326134715315</v>
+        <v>0.01559561774098856</v>
       </c>
       <c r="C26">
-        <v>-0.01699815732478607</v>
+        <v>0.01676420956694122</v>
       </c>
       <c r="D26">
-        <v>-0.001265778719602236</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02290754963964341</v>
+      </c>
+      <c r="E26">
+        <v>0.0542565553544376</v>
+      </c>
+      <c r="F26">
+        <v>-0.05348452948496299</v>
+      </c>
+      <c r="G26">
+        <v>0.05687659339700028</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.08739101402689237</v>
+        <v>0.1353133182278227</v>
       </c>
       <c r="C28">
-        <v>0.2489593825411122</v>
+        <v>-0.2552314464382109</v>
       </c>
       <c r="D28">
-        <v>-0.01060907583718755</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.03122668824989854</v>
+      </c>
+      <c r="E28">
+        <v>0.05482412662270884</v>
+      </c>
+      <c r="F28">
+        <v>-0.02264371144679891</v>
+      </c>
+      <c r="G28">
+        <v>0.05633511714640852</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.008217465980189263</v>
+        <v>0.006111039054539535</v>
       </c>
       <c r="C29">
-        <v>-0.03337818809725091</v>
+        <v>0.02900385782427983</v>
       </c>
       <c r="D29">
-        <v>-0.01649938814488372</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.0150561535554816</v>
+      </c>
+      <c r="E29">
+        <v>0.05072520715137802</v>
+      </c>
+      <c r="F29">
+        <v>-0.05853779864293287</v>
+      </c>
+      <c r="G29">
+        <v>0.0930224100966657</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04589423574377868</v>
+        <v>0.04177946331701347</v>
       </c>
       <c r="C30">
-        <v>-0.05394247157418535</v>
+        <v>0.05717273289069053</v>
       </c>
       <c r="D30">
-        <v>0.07696623344658507</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.09872220187149033</v>
+      </c>
+      <c r="E30">
+        <v>0.08454106327742167</v>
+      </c>
+      <c r="F30">
+        <v>-0.06316062732493603</v>
+      </c>
+      <c r="G30">
+        <v>0.07303714250236307</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05975861469484647</v>
+        <v>0.05820844566210544</v>
       </c>
       <c r="C31">
-        <v>-0.04443032555941877</v>
+        <v>0.06062384025129723</v>
       </c>
       <c r="D31">
-        <v>-0.04478985161556349</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01937335174585732</v>
+      </c>
+      <c r="E31">
+        <v>0.06882897221574392</v>
+      </c>
+      <c r="F31">
+        <v>-0.017618491618563</v>
+      </c>
+      <c r="G31">
+        <v>0.08874954620276683</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.001013096746186814</v>
+        <v>0.005850660489376535</v>
       </c>
       <c r="C32">
-        <v>-0.0424279846862767</v>
+        <v>0.03413707151038407</v>
       </c>
       <c r="D32">
-        <v>0.05712879201023537</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05258308439616209</v>
+      </c>
+      <c r="E32">
+        <v>0.05766140948215326</v>
+      </c>
+      <c r="F32">
+        <v>-0.06090871982176863</v>
+      </c>
+      <c r="G32">
+        <v>0.07617194417764343</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03282415388575581</v>
+        <v>0.02734637785700135</v>
       </c>
       <c r="C33">
-        <v>-0.05848534906854879</v>
+        <v>0.05250877174535944</v>
       </c>
       <c r="D33">
-        <v>0.03872058099630953</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.06797750439223341</v>
+      </c>
+      <c r="E33">
+        <v>0.09421203441304211</v>
+      </c>
+      <c r="F33">
+        <v>-0.05796679356302673</v>
+      </c>
+      <c r="G33">
+        <v>0.1050519317445223</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04558159767164816</v>
+        <v>0.04104779217294503</v>
       </c>
       <c r="C34">
-        <v>-0.06422256744476156</v>
+        <v>0.06265451806279208</v>
       </c>
       <c r="D34">
-        <v>0.02018495095201792</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03802988281134039</v>
+      </c>
+      <c r="E34">
+        <v>0.02032580440586136</v>
+      </c>
+      <c r="F34">
+        <v>-0.04907729255787545</v>
+      </c>
+      <c r="G34">
+        <v>0.07575400645458295</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01684306891610972</v>
+        <v>0.01451460470305013</v>
       </c>
       <c r="C36">
-        <v>-0.01684404832363012</v>
+        <v>0.01308796605275528</v>
       </c>
       <c r="D36">
-        <v>-0.004902518058778092</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02174131437933774</v>
+      </c>
+      <c r="E36">
+        <v>0.0617739223671384</v>
+      </c>
+      <c r="F36">
+        <v>-0.04231995456040934</v>
+      </c>
+      <c r="G36">
+        <v>0.07321692071944694</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02948159125034275</v>
+        <v>0.02317154631997496</v>
       </c>
       <c r="C38">
-        <v>-0.0331985385884101</v>
+        <v>0.02490177322777994</v>
       </c>
       <c r="D38">
-        <v>-0.01621615550309552</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.01967970159546974</v>
+      </c>
+      <c r="E38">
+        <v>0.05346787127759281</v>
+      </c>
+      <c r="F38">
+        <v>-0.03708807453471809</v>
+      </c>
+      <c r="G38">
+        <v>0.0502859280362704</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04741023776556805</v>
+        <v>0.04118308202230356</v>
       </c>
       <c r="C39">
-        <v>-0.06217284760092524</v>
+        <v>0.06263983537321793</v>
       </c>
       <c r="D39">
-        <v>0.01918891355948545</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.04965221193942195</v>
+      </c>
+      <c r="E39">
+        <v>0.05340419719882773</v>
+      </c>
+      <c r="F39">
+        <v>-0.06760095372617481</v>
+      </c>
+      <c r="G39">
+        <v>0.07118781807864698</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01116344533978955</v>
+        <v>0.01305901513735124</v>
       </c>
       <c r="C40">
-        <v>-0.05131895643381183</v>
+        <v>0.03730589868003405</v>
       </c>
       <c r="D40">
-        <v>0.01874377332344171</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.02814491455062063</v>
+      </c>
+      <c r="E40">
+        <v>0.08956997566064033</v>
+      </c>
+      <c r="F40">
+        <v>-0.02306881457282666</v>
+      </c>
+      <c r="G40">
+        <v>0.1084476886571688</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02240317690695469</v>
+        <v>0.01915728520877185</v>
       </c>
       <c r="C41">
-        <v>-0.01466877681920941</v>
+        <v>0.01039480746798906</v>
       </c>
       <c r="D41">
-        <v>-0.001144317560936231</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01350342366454244</v>
+      </c>
+      <c r="E41">
+        <v>0.06254095668346041</v>
+      </c>
+      <c r="F41">
+        <v>-0.04024679736943161</v>
+      </c>
+      <c r="G41">
+        <v>0.05911779215661667</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04261312783264919</v>
+        <v>0.03054766118132706</v>
       </c>
       <c r="C43">
-        <v>-0.03240279280261419</v>
+        <v>0.02393733365614641</v>
       </c>
       <c r="D43">
-        <v>0.0210294994303313</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04139199339699568</v>
+      </c>
+      <c r="E43">
+        <v>0.08016943995304876</v>
+      </c>
+      <c r="F43">
+        <v>-0.03051079077682401</v>
+      </c>
+      <c r="G43">
+        <v>0.08721758528416827</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01439332457913179</v>
+        <v>0.01560943839153113</v>
       </c>
       <c r="C44">
-        <v>-0.06795148394090345</v>
+        <v>0.04779566674955917</v>
       </c>
       <c r="D44">
-        <v>0.007821955277952415</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.0303349320540069</v>
+      </c>
+      <c r="E44">
+        <v>0.08743233017885443</v>
+      </c>
+      <c r="F44">
+        <v>-0.05553350307660708</v>
+      </c>
+      <c r="G44">
+        <v>0.05681030443422518</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.0102059903672334</v>
+        <v>0.01054905458829529</v>
       </c>
       <c r="C46">
-        <v>-0.02861298482610854</v>
+        <v>0.02901194865831719</v>
       </c>
       <c r="D46">
-        <v>-0.01643938231662036</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01002189713001005</v>
+      </c>
+      <c r="E46">
+        <v>0.06084968753750873</v>
+      </c>
+      <c r="F46">
+        <v>-0.07070722546959927</v>
+      </c>
+      <c r="G46">
+        <v>0.0940387420026253</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08879164435257925</v>
+        <v>0.09149586996262975</v>
       </c>
       <c r="C47">
-        <v>-0.06883132536869267</v>
+        <v>0.07978625549475735</v>
       </c>
       <c r="D47">
-        <v>-0.04547973958194498</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02726905605186063</v>
+      </c>
+      <c r="E47">
+        <v>0.06724916097224364</v>
+      </c>
+      <c r="F47">
+        <v>-0.01747661273534375</v>
+      </c>
+      <c r="G47">
+        <v>0.07989129000075371</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01906052067337571</v>
+        <v>0.01728930899125409</v>
       </c>
       <c r="C48">
-        <v>-0.01352031735130536</v>
+        <v>0.01553642942051125</v>
       </c>
       <c r="D48">
-        <v>-0.01918739728775374</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.008988366416131365</v>
+      </c>
+      <c r="E48">
+        <v>0.07402680316080948</v>
+      </c>
+      <c r="F48">
+        <v>-0.05423806854772271</v>
+      </c>
+      <c r="G48">
+        <v>0.08229185314000552</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.0829195199038832</v>
+        <v>0.07124568241546347</v>
       </c>
       <c r="C50">
-        <v>-0.08249019776574555</v>
+        <v>0.07513943107078201</v>
       </c>
       <c r="D50">
-        <v>-0.04527723875823002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.01127450579799335</v>
+      </c>
+      <c r="E50">
+        <v>0.07725022527756698</v>
+      </c>
+      <c r="F50">
+        <v>0.01185396587782645</v>
+      </c>
+      <c r="G50">
+        <v>0.09444565555360732</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01767710116563298</v>
+        <v>0.0108126911579803</v>
       </c>
       <c r="C51">
-        <v>-0.04873676758576963</v>
+        <v>0.03169406710014339</v>
       </c>
       <c r="D51">
-        <v>0.04150883482701753</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.05483059007715598</v>
+      </c>
+      <c r="E51">
+        <v>0.0524628002714719</v>
+      </c>
+      <c r="F51">
+        <v>-0.06192318083856331</v>
+      </c>
+      <c r="G51">
+        <v>0.07063996809442909</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08295296902955193</v>
+        <v>0.09599562690843468</v>
       </c>
       <c r="C53">
-        <v>-0.07661793629699973</v>
+        <v>0.08501055018199473</v>
       </c>
       <c r="D53">
-        <v>-0.06331268928814938</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.0623368697707963</v>
+      </c>
+      <c r="E53">
+        <v>0.06343811215056168</v>
+      </c>
+      <c r="F53">
+        <v>-0.01621863290807655</v>
+      </c>
+      <c r="G53">
+        <v>0.07311789330228882</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03575545080522556</v>
+        <v>0.02904562826753376</v>
       </c>
       <c r="C54">
-        <v>-0.0390979882752506</v>
+        <v>0.03329739967707648</v>
       </c>
       <c r="D54">
-        <v>-0.005967660695062545</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02170796841823983</v>
+      </c>
+      <c r="E54">
+        <v>0.05992222759765119</v>
+      </c>
+      <c r="F54">
+        <v>-0.06196565523179585</v>
+      </c>
+      <c r="G54">
+        <v>0.09035802713012872</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.0779336188709901</v>
+        <v>0.08833691599630164</v>
       </c>
       <c r="C55">
-        <v>-0.05545361889707249</v>
+        <v>0.06798135941248597</v>
       </c>
       <c r="D55">
-        <v>-0.06775583176163591</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.06249167950311952</v>
+      </c>
+      <c r="E55">
+        <v>0.04171874598828541</v>
+      </c>
+      <c r="F55">
+        <v>-0.002366127057744495</v>
+      </c>
+      <c r="G55">
+        <v>0.05296852496142179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1513591139190794</v>
+        <v>0.1532514176215885</v>
       </c>
       <c r="C56">
-        <v>-0.08513357074506792</v>
+        <v>0.1018982731217431</v>
       </c>
       <c r="D56">
-        <v>-0.06022356235664163</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05744216472207175</v>
+      </c>
+      <c r="E56">
+        <v>0.03892892563774919</v>
+      </c>
+      <c r="F56">
+        <v>0.01722072147849056</v>
+      </c>
+      <c r="G56">
+        <v>0.02192744306757689</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04664142454622183</v>
+        <v>0.02904719515644865</v>
       </c>
       <c r="C58">
-        <v>-0.02629735303520146</v>
+        <v>0.02427329069594064</v>
       </c>
       <c r="D58">
-        <v>0.5597029544179996</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3581316508577493</v>
+      </c>
+      <c r="E58">
+        <v>0.6401020308109716</v>
+      </c>
+      <c r="F58">
+        <v>0.3826863082214328</v>
+      </c>
+      <c r="G58">
+        <v>-0.4868236799801761</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1259458359966262</v>
+        <v>0.1416635707872066</v>
       </c>
       <c r="C59">
-        <v>0.2015824768199946</v>
+        <v>-0.1905469893892549</v>
       </c>
       <c r="D59">
-        <v>0.0242417581108248</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02776573607990283</v>
+      </c>
+      <c r="E59">
+        <v>0.03130955276752306</v>
+      </c>
+      <c r="F59">
+        <v>-0.03746352849113348</v>
+      </c>
+      <c r="G59">
+        <v>-0.006070758671000198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3085161510586926</v>
+        <v>0.2777097448236158</v>
       </c>
       <c r="C60">
-        <v>-0.1043240985053099</v>
+        <v>0.1058311490607853</v>
       </c>
       <c r="D60">
-        <v>0.1913070991736536</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2659042701721374</v>
+      </c>
+      <c r="E60">
+        <v>-0.2369887619422239</v>
+      </c>
+      <c r="F60">
+        <v>0.08198704907349395</v>
+      </c>
+      <c r="G60">
+        <v>0.03093430611273114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04565170609949262</v>
+        <v>0.04260827267962219</v>
       </c>
       <c r="C61">
-        <v>-0.06172364904551804</v>
+        <v>0.05837035684814972</v>
       </c>
       <c r="D61">
-        <v>0.01337323312745885</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.03992987161675127</v>
+      </c>
+      <c r="E61">
+        <v>0.05484571429748253</v>
+      </c>
+      <c r="F61">
+        <v>-0.04803719412720349</v>
+      </c>
+      <c r="G61">
+        <v>0.08388698987940171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01817586725622027</v>
+        <v>0.01640784605471822</v>
       </c>
       <c r="C63">
-        <v>-0.03415657342692745</v>
+        <v>0.03087194618719699</v>
       </c>
       <c r="D63">
-        <v>-0.023967755625135</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01393590460466234</v>
+      </c>
+      <c r="E63">
+        <v>0.06455430586767207</v>
+      </c>
+      <c r="F63">
+        <v>-0.02735769012888078</v>
+      </c>
+      <c r="G63">
+        <v>0.07977485489072868</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04996952193101224</v>
+        <v>0.05557473733153399</v>
       </c>
       <c r="C64">
-        <v>-0.04886191871528929</v>
+        <v>0.05817412262446164</v>
       </c>
       <c r="D64">
-        <v>0.01293992538579117</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.007016559990216273</v>
+      </c>
+      <c r="E64">
+        <v>0.04433586621193085</v>
+      </c>
+      <c r="F64">
+        <v>-0.04490378639334137</v>
+      </c>
+      <c r="G64">
+        <v>0.05856872482822033</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08108942850487323</v>
+        <v>0.06559835750334084</v>
       </c>
       <c r="C65">
-        <v>-0.02712031535437938</v>
+        <v>0.02696395567123109</v>
       </c>
       <c r="D65">
-        <v>0.05897749490409032</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08554980536028049</v>
+      </c>
+      <c r="E65">
+        <v>0.05747472126962425</v>
+      </c>
+      <c r="F65">
+        <v>-0.002294840434652745</v>
+      </c>
+      <c r="G65">
+        <v>0.02134467482989195</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06278092765446142</v>
+        <v>0.05320502507596957</v>
       </c>
       <c r="C66">
-        <v>-0.0856624671103445</v>
+        <v>0.08019163796914949</v>
       </c>
       <c r="D66">
-        <v>0.04075183107084965</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07451458988460884</v>
+      </c>
+      <c r="E66">
+        <v>0.06287270122326431</v>
+      </c>
+      <c r="F66">
+        <v>-0.05734130440260297</v>
+      </c>
+      <c r="G66">
+        <v>0.08499486635406492</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05122155212235168</v>
+        <v>0.04463878956383895</v>
       </c>
       <c r="C67">
-        <v>-0.03277001181298735</v>
+        <v>0.02936468931159284</v>
       </c>
       <c r="D67">
-        <v>-0.02340518256398913</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.004041224353464281</v>
+      </c>
+      <c r="E67">
+        <v>0.02996702606507273</v>
+      </c>
+      <c r="F67">
+        <v>-0.02611903261275299</v>
+      </c>
+      <c r="G67">
+        <v>0.03876416320004903</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1230411044432206</v>
+        <v>0.1482854377483994</v>
       </c>
       <c r="C68">
-        <v>0.2829364636918147</v>
+        <v>-0.2462193776613462</v>
       </c>
       <c r="D68">
-        <v>-0.01068273186991722</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01697012896337135</v>
+      </c>
+      <c r="E68">
+        <v>0.03877833389103615</v>
+      </c>
+      <c r="F68">
+        <v>-0.003125179688944216</v>
+      </c>
+      <c r="G68">
+        <v>0.03493970942062571</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09160849259826405</v>
+        <v>0.08691491819384264</v>
       </c>
       <c r="C69">
-        <v>-0.072452019244601</v>
+        <v>0.09007098611998551</v>
       </c>
       <c r="D69">
-        <v>-0.05129210944562094</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01797414250287086</v>
+      </c>
+      <c r="E69">
+        <v>0.06006055823008385</v>
+      </c>
+      <c r="F69">
+        <v>-0.04794632406400966</v>
+      </c>
+      <c r="G69">
+        <v>0.08365065299522106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1138435866696469</v>
+        <v>0.1423141517491682</v>
       </c>
       <c r="C71">
-        <v>0.2580065682743834</v>
+        <v>-0.2436852588612793</v>
       </c>
       <c r="D71">
-        <v>0.008567503073217965</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.003010624519106978</v>
+      </c>
+      <c r="E71">
+        <v>0.05659111575834365</v>
+      </c>
+      <c r="F71">
+        <v>-0.007750218998868295</v>
+      </c>
+      <c r="G71">
+        <v>0.06432198814141038</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09599680666371957</v>
+        <v>0.1021950008841061</v>
       </c>
       <c r="C72">
-        <v>-0.05038634875825182</v>
+        <v>0.05550346467059117</v>
       </c>
       <c r="D72">
-        <v>0.004322502373824322</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02892830620819878</v>
+      </c>
+      <c r="E72">
+        <v>0.02705964553356763</v>
+      </c>
+      <c r="F72">
+        <v>-0.02316347120441111</v>
+      </c>
+      <c r="G72">
+        <v>0.08220206109850152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4012743973133749</v>
+        <v>0.3387972314059376</v>
       </c>
       <c r="C73">
-        <v>-0.03740805528523696</v>
+        <v>0.06790275351832827</v>
       </c>
       <c r="D73">
-        <v>0.4567318821694553</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.527010893224464</v>
+      </c>
+      <c r="E73">
+        <v>-0.4393579751064982</v>
+      </c>
+      <c r="F73">
+        <v>0.2319085019752897</v>
+      </c>
+      <c r="G73">
+        <v>-0.01112079913506123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1059537408096652</v>
+        <v>0.1108173752640202</v>
       </c>
       <c r="C74">
-        <v>-0.09389532650845483</v>
+        <v>0.09330830575705536</v>
       </c>
       <c r="D74">
-        <v>-0.05020393604776049</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.05043918390024318</v>
+      </c>
+      <c r="E74">
+        <v>0.05844577205260353</v>
+      </c>
+      <c r="F74">
+        <v>0.02141049417207973</v>
+      </c>
+      <c r="G74">
+        <v>0.05462181560380536</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2590342886922277</v>
+        <v>0.2614307413920878</v>
       </c>
       <c r="C75">
-        <v>-0.09518868194153311</v>
+        <v>0.1262068774333513</v>
       </c>
       <c r="D75">
-        <v>-0.1388576555543996</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1503463154694292</v>
+      </c>
+      <c r="E75">
+        <v>0.02565589489782675</v>
+      </c>
+      <c r="F75">
+        <v>0.06436298875942675</v>
+      </c>
+      <c r="G75">
+        <v>-0.0606415099982642</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1156349892484797</v>
+        <v>0.1296072545851925</v>
       </c>
       <c r="C76">
-        <v>-0.08046645976010465</v>
+        <v>0.09189046966060828</v>
       </c>
       <c r="D76">
-        <v>-0.07703158810099286</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.08318999776748684</v>
+      </c>
+      <c r="E76">
+        <v>0.0676174983448176</v>
+      </c>
+      <c r="F76">
+        <v>-0.003349958763185314</v>
+      </c>
+      <c r="G76">
+        <v>0.03669765360964387</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07830632698102254</v>
+        <v>0.06416111976059963</v>
       </c>
       <c r="C77">
-        <v>-0.05004493272248443</v>
+        <v>0.06183611414226364</v>
       </c>
       <c r="D77">
-        <v>0.04939650926871515</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.04769013053533901</v>
+      </c>
+      <c r="E77">
+        <v>0.1029279085586033</v>
+      </c>
+      <c r="F77">
+        <v>-0.1798710347476616</v>
+      </c>
+      <c r="G77">
+        <v>-0.0747585154187102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.0482051945669777</v>
+        <v>0.04574061056499732</v>
       </c>
       <c r="C78">
-        <v>-0.04603886238026078</v>
+        <v>0.05571542416666916</v>
       </c>
       <c r="D78">
-        <v>0.0288426147046797</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.05830353571804722</v>
+      </c>
+      <c r="E78">
+        <v>0.0640094718209267</v>
+      </c>
+      <c r="F78">
+        <v>-0.04982439488258496</v>
+      </c>
+      <c r="G78">
+        <v>0.06497765794909691</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-7.697841963321138e-06</v>
+        <v>0.03129684029453326</v>
       </c>
       <c r="C79">
-        <v>0.000142645327572242</v>
+        <v>0.04505698650608888</v>
       </c>
       <c r="D79">
-        <v>0.0005177144839691051</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0804689071098301</v>
+      </c>
+      <c r="E79">
+        <v>0.06063335637921171</v>
+      </c>
+      <c r="F79">
+        <v>0.02634619914734003</v>
+      </c>
+      <c r="G79">
+        <v>0.03208413132235115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.0397960674480155</v>
+        <v>0.03064798269148659</v>
       </c>
       <c r="C80">
-        <v>-0.04872740686889385</v>
+        <v>0.04961515219209853</v>
       </c>
       <c r="D80">
-        <v>0.03250754391696168</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03911054222365846</v>
+      </c>
+      <c r="E80">
+        <v>0.01880428272223413</v>
+      </c>
+      <c r="F80">
+        <v>-0.05434113216399021</v>
+      </c>
+      <c r="G80">
+        <v>0.005405420020567256</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1425812908203706</v>
+        <v>0.1421011174335556</v>
       </c>
       <c r="C81">
-        <v>-0.07304615972720219</v>
+        <v>0.09190234896011215</v>
       </c>
       <c r="D81">
-        <v>-0.1136427680271087</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1277080975708033</v>
+      </c>
+      <c r="E81">
+        <v>0.06301913311730074</v>
+      </c>
+      <c r="F81">
+        <v>0.03400563830546346</v>
+      </c>
+      <c r="G81">
+        <v>-0.01167188609925032</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1857620673154494</v>
+        <v>0.221317182265639</v>
       </c>
       <c r="C82">
-        <v>-0.08602653407840688</v>
+        <v>0.1504380453854992</v>
       </c>
       <c r="D82">
-        <v>-0.1963565515392373</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2519649953305565</v>
+      </c>
+      <c r="E82">
+        <v>-0.0372808592838195</v>
+      </c>
+      <c r="F82">
+        <v>-0.04198841706070328</v>
+      </c>
+      <c r="G82">
+        <v>0.07107437958096154</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03964700592756864</v>
+        <v>0.02669820216534342</v>
       </c>
       <c r="C83">
-        <v>-0.0305160406605059</v>
+        <v>0.04383353490571313</v>
       </c>
       <c r="D83">
-        <v>0.03905366478082126</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.02926550770931328</v>
+      </c>
+      <c r="E83">
+        <v>0.02854056882752312</v>
+      </c>
+      <c r="F83">
+        <v>-0.03778381971715914</v>
+      </c>
+      <c r="G83">
+        <v>0.01199855611396193</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0004591437192839692</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>4.404474864230053e-05</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.001941824642471848</v>
+      </c>
+      <c r="E84">
+        <v>0.002623387088413775</v>
+      </c>
+      <c r="F84">
+        <v>0.0005643902097734457</v>
+      </c>
+      <c r="G84">
+        <v>0.002603948587741389</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2203471858043979</v>
+        <v>0.2031957596142119</v>
       </c>
       <c r="C85">
-        <v>-0.09617646796711314</v>
+        <v>0.1126325193644359</v>
       </c>
       <c r="D85">
-        <v>-0.1674625130811482</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1283958964184215</v>
+      </c>
+      <c r="E85">
+        <v>-0.01093106219447508</v>
+      </c>
+      <c r="F85">
+        <v>0.1003333420587264</v>
+      </c>
+      <c r="G85">
+        <v>-0.02800173251675785</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.008119700127792793</v>
+        <v>0.01119923618466942</v>
       </c>
       <c r="C86">
-        <v>-0.02913018734596783</v>
+        <v>0.02017043552936531</v>
       </c>
       <c r="D86">
-        <v>0.04311812868611115</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05808343154969314</v>
+      </c>
+      <c r="E86">
+        <v>0.08348217144274453</v>
+      </c>
+      <c r="F86">
+        <v>-0.07768832544232047</v>
+      </c>
+      <c r="G86">
+        <v>0.08293971289447126</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02430096654842719</v>
+        <v>0.02513216711593828</v>
       </c>
       <c r="C87">
-        <v>-0.004240903001363512</v>
+        <v>0.01267263736765956</v>
       </c>
       <c r="D87">
-        <v>0.0794156707409044</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.07798020316605581</v>
+      </c>
+      <c r="E87">
+        <v>0.1330215185255702</v>
+      </c>
+      <c r="F87">
+        <v>-0.07124852427830043</v>
+      </c>
+      <c r="G87">
+        <v>0.02246682488163733</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1095079243091958</v>
+        <v>0.09362200187297809</v>
       </c>
       <c r="C88">
-        <v>-0.07494006217942981</v>
+        <v>0.0631577928514581</v>
       </c>
       <c r="D88">
-        <v>-0.02395957858382103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.006785703678119284</v>
+      </c>
+      <c r="E88">
+        <v>0.05482854346737772</v>
+      </c>
+      <c r="F88">
+        <v>-0.05336768181800525</v>
+      </c>
+      <c r="G88">
+        <v>0.04327478588081314</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1769838979533642</v>
+        <v>0.2154777313811328</v>
       </c>
       <c r="C89">
-        <v>0.3802676898340511</v>
+        <v>-0.3830715454034799</v>
       </c>
       <c r="D89">
-        <v>-0.02730710168411358</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.02043576471730698</v>
+      </c>
+      <c r="E89">
+        <v>0.07622118466881161</v>
+      </c>
+      <c r="F89">
+        <v>-0.09187619502212684</v>
+      </c>
+      <c r="G89">
+        <v>0.004593109796256963</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1715072523951192</v>
+        <v>0.196767887798617</v>
       </c>
       <c r="C90">
-        <v>0.3390007751865934</v>
+        <v>-0.3133542733909857</v>
       </c>
       <c r="D90">
-        <v>-0.04221069667612305</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02577516395254851</v>
+      </c>
+      <c r="E90">
+        <v>0.05669465286354434</v>
+      </c>
+      <c r="F90">
+        <v>-0.02604857880179083</v>
+      </c>
+      <c r="G90">
+        <v>0.01919329199628493</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.191894441545726</v>
+        <v>0.1880791210898298</v>
       </c>
       <c r="C91">
-        <v>-0.1266857504979744</v>
+        <v>0.1420297657145505</v>
       </c>
       <c r="D91">
-        <v>-0.1332297550010361</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1312605768343586</v>
+      </c>
+      <c r="E91">
+        <v>0.04266075860827426</v>
+      </c>
+      <c r="F91">
+        <v>0.01821461802112605</v>
+      </c>
+      <c r="G91">
+        <v>-0.009047687795677944</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.156887215766017</v>
+        <v>0.1782016563414694</v>
       </c>
       <c r="C92">
-        <v>0.288176704288018</v>
+        <v>-0.2926386764025531</v>
       </c>
       <c r="D92">
-        <v>-0.02338380492346967</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.02110412602296264</v>
+      </c>
+      <c r="E92">
+        <v>0.06999869507652773</v>
+      </c>
+      <c r="F92">
+        <v>-0.05597931016975558</v>
+      </c>
+      <c r="G92">
+        <v>0.03019186984987779</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1904165394035372</v>
+        <v>0.2170906793860293</v>
       </c>
       <c r="C93">
-        <v>0.3399967251213745</v>
+        <v>-0.3210727988917053</v>
       </c>
       <c r="D93">
-        <v>-0.04241816828458986</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.02106290485011816</v>
+      </c>
+      <c r="E93">
+        <v>0.04079200223201583</v>
+      </c>
+      <c r="F93">
+        <v>-0.002420124289840606</v>
+      </c>
+      <c r="G93">
+        <v>0.04085722865751718</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3413506800271504</v>
+        <v>0.3422654036344132</v>
       </c>
       <c r="C94">
-        <v>-0.1350143169711197</v>
+        <v>0.1787473808670608</v>
       </c>
       <c r="D94">
-        <v>-0.385504999793728</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4067990255501222</v>
+      </c>
+      <c r="E94">
+        <v>-0.01970961892024229</v>
+      </c>
+      <c r="F94">
+        <v>0.08528597294608715</v>
+      </c>
+      <c r="G94">
+        <v>-0.4022571409663831</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1217363096702649</v>
+        <v>0.08939244823806979</v>
       </c>
       <c r="C95">
-        <v>-0.05950059676434617</v>
+        <v>0.05998943682965233</v>
       </c>
       <c r="D95">
-        <v>0.2336281666204476</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.2031196641831827</v>
+      </c>
+      <c r="E95">
+        <v>-0.08829952164146788</v>
+      </c>
+      <c r="F95">
+        <v>-0.7648667500284668</v>
+      </c>
+      <c r="G95">
+        <v>-0.5001429817547564</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1921297301190796</v>
+        <v>0.1857519982614773</v>
       </c>
       <c r="C98">
-        <v>-0.01704097672893001</v>
+        <v>0.04445111211031806</v>
       </c>
       <c r="D98">
-        <v>0.1616790428870335</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.2052066488553378</v>
+      </c>
+      <c r="E98">
+        <v>-0.1259107081796736</v>
+      </c>
+      <c r="F98">
+        <v>0.08215522318117434</v>
+      </c>
+      <c r="G98">
+        <v>0.06939990198319898</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.007989899726161175</v>
+        <v>0.006100434403356534</v>
       </c>
       <c r="C101">
-        <v>-0.03341522836364193</v>
+        <v>0.0285679051055172</v>
       </c>
       <c r="D101">
-        <v>-0.0162674906055744</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01492822987515806</v>
+      </c>
+      <c r="E101">
+        <v>0.05142870760346434</v>
+      </c>
+      <c r="F101">
+        <v>-0.05923313356088391</v>
+      </c>
+      <c r="G101">
+        <v>0.09295805642437822</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1244213880227447</v>
+        <v>0.1266309606193927</v>
       </c>
       <c r="C102">
-        <v>-0.06792283967398423</v>
+        <v>0.09967576105568021</v>
       </c>
       <c r="D102">
-        <v>-0.05033572463738138</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05883046204561712</v>
+      </c>
+      <c r="E102">
+        <v>-0.01549152221405539</v>
+      </c>
+      <c r="F102">
+        <v>-0.0254593437742859</v>
+      </c>
+      <c r="G102">
+        <v>-0.007868871506789405</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
